--- a/data/trans_camb/P25_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_4-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,94</t>
+          <t>-2,36; 3,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,5</t>
+          <t>-4,1; 0,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,17</t>
+          <t>-3,92; 0,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,0</t>
+          <t>-1,06; 3,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,38</t>
+          <t>-3,27; 1,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,55</t>
+          <t>-1,61; 1,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,62</t>
+          <t>-1,12; 2,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,06</t>
+          <t>-0,92; 3,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,86</t>
+          <t>-1,27; 3,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 4,1</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 1,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 0,86</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 1,62</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 2,91</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 2,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-36,0%</t>
+          <t>-39,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>-32,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>-17,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>34,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>73,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-12,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 87,87</t>
+          <t>-40,67; 109,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 19,39</t>
+          <t>-67,67; 22,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 91,86</t>
+          <t>-64,87; 33,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 107,61</t>
+          <t>-22,69; 182,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 129,62</t>
+          <t>-48,24; 29,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 78,19</t>
+          <t>-45,11; 105,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 54,29</t>
+          <t>-29,93; 125,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 39,18</t>
+          <t>-30,32; 185,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 64,3</t>
+          <t>-28,41; 141,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 190,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-30,69; 62,78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,23; 28,25</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-40,43; 54,54</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 115,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,37; 60,86</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,03</t>
+          <t>-0,27; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,33</t>
+          <t>0,79; 5,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,41</t>
+          <t>0,73; 5,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,24</t>
+          <t>-3,8; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,01</t>
+          <t>-7,18; 1,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,62</t>
+          <t>-3,47; 2,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,03</t>
+          <t>-2,32; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,31</t>
+          <t>-4,41; 0,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,58</t>
+          <t>0,9; 7,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 5,38</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 2,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 3,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 2,36</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 3,68</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 2,51</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>206,33%</t>
+          <t>189,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>304,89%</t>
+          <t>188,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>-26,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>-44,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,17%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>-39,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>164,27%</t>
+          <t>254,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85,94%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>42,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>47,12%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-11,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 426,76</t>
+          <t>-27,06; 448,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 650,28</t>
+          <t>23,84; 741,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,22; 921,37</t>
+          <t>15,76; 666,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 189,54</t>
+          <t>-69,53; 71,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 267,45</t>
+          <t>-82,36; 49,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,78; 316,17</t>
+          <t>-78,03; 167,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 166,28</t>
+          <t>-68,04; 277,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 273,78</t>
+          <t>-85,74; 60,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 453,69</t>
+          <t>26,73; 806,3</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-44,0; 242,67</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-40,79; 172,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 283,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 185,83</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 159,53</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-49,98; 79,27</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,93</t>
+          <t>-6,78; 4,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 7,71</t>
+          <t>-4,03; 7,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-9,14; 0,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 3,61</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,01; 2,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 3,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 4,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 3,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 4,81</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 2,14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 4,39</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 0,98</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-65,83%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-16,47%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-28,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-18,22%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-15,87%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-12,75%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-23,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-40,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,23; 224,86</t>
+          <t>-82,52; 199,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,81; 364,69</t>
+          <t>-60,04; 307,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 59,32</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-72,04; 217,87</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 198,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-84,6; 114,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-76,37; 172,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-83,43; 221,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-64,13; 111,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-38,97; 177,64</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-67,93; 71,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 138,51</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-79,96; 39,88</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,03</t>
+          <t>-1,18; 2,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,32</t>
+          <t>-0,98; 2,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,07</t>
+          <t>-1,46; 1,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,41</t>
+          <t>-0,97; 2,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,86</t>
+          <t>-3,38; 0,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,41</t>
+          <t>-1,74; 1,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,25</t>
+          <t>-1,14; 2,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,69</t>
+          <t>-1,54; 1,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,3</t>
+          <t>0,37; 3,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 1,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,64</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 1,09</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,68</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 1,62</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>-24,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>72,47%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>64,89%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,51%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 78,83</t>
+          <t>-29,62; 91,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 88,71</t>
+          <t>-24,05; 76,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 149,75</t>
+          <t>-36,57; 67,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 69,33</t>
+          <t>-23,95; 92,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 86,03</t>
+          <t>-51,26; 15,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 66,62</t>
+          <t>-43,65; 56,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 49,15</t>
+          <t>-30,63; 101,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 63,59</t>
+          <t>-43,52; 71,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 89,23</t>
+          <t>8,85; 174,67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 142,81</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-24,37; 52,45</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 61,27</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 39,8</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 103,4</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-21,67; 44,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
